--- a/專題文件/圖/4-1-1專案時程甘特圖.xlsx
+++ b/專題文件/圖/4-1-1專案時程甘特圖.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiZhe\OneDrive\桌面\專題\圖\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiZhe\OneDrive\桌面\專題文件\圖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6569CC17-1489-454A-8B93-1696CCE393F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00AB85A-84C7-4AA2-B31A-CE4A86979FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" xr2:uid="{35404D59-4AB6-4DE4-99C0-6212EB82554F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>後端開發</t>
   </si>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>文件統整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺服器架設</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,9 +288,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>專案時程甘特圖!$A$2:$A$12</c:f>
+              <c:f>專案時程甘特圖!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>文件統整</c:v>
                 </c:pt>
@@ -294,30 +298,33 @@
                   <c:v>簡報製作</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>伺服器架設</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>後端開發</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>前端開發</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>美術設計</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>開發工具學習</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>文件撰寫 (7~12章)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>文件撰寫 (1~6章)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>系統分析</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>相關資料蒐集</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>主題構思</c:v>
                 </c:pt>
               </c:strCache>
@@ -325,41 +332,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>專案時程甘特圖!$B$2:$B$12</c:f>
+              <c:f>專案時程甘特圖!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>45640</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45624</c:v>
+                  <c:v>45616</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>45609</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45419</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45409</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45383</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45370</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45536</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45352</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45352</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>45323</c:v>
                 </c:pt>
               </c:numCache>
@@ -397,9 +407,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>專案時程甘特圖!$A$2:$A$12</c:f>
+              <c:f>專案時程甘特圖!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>文件統整</c:v>
                 </c:pt>
@@ -407,30 +417,33 @@
                   <c:v>簡報製作</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>伺服器架設</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>後端開發</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>前端開發</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>美術設計</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>開發工具學習</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>文件撰寫 (7~12章)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>文件撰寫 (1~6章)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>系統分析</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>相關資料蒐集</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>主題構思</c:v>
                 </c:pt>
               </c:strCache>
@@ -438,41 +451,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>專案時程甘特圖!$D$2:$D$12</c:f>
+              <c:f>專案時程甘特圖!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
@@ -525,9 +541,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>專案時程甘特圖!$A$2:$A$12</c:f>
+              <c:f>專案時程甘特圖!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>文件統整</c:v>
                 </c:pt>
@@ -535,30 +551,33 @@
                   <c:v>簡報製作</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>伺服器架設</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>後端開發</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>前端開發</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>美術設計</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>開發工具學習</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>文件撰寫 (7~12章)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>文件撰寫 (1~6章)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>系統分析</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>相關資料蒐集</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>主題構思</c:v>
                 </c:pt>
               </c:strCache>
@@ -566,35 +585,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>專案時程甘特圖!$F$2:$F$12</c:f>
+              <c:f>專案時程甘特圖!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>45617</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>45434</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>45427</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45399</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45371</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>45550</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>45376</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45370</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45370</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>45323</c:v>
                 </c:pt>
               </c:numCache>
@@ -632,9 +657,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>專案時程甘特圖!$A$2:$A$12</c:f>
+              <c:f>專案時程甘特圖!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>文件統整</c:v>
                 </c:pt>
@@ -642,30 +667,33 @@
                   <c:v>簡報製作</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>伺服器架設</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>後端開發</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>前端開發</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>美術設計</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>開發工具學習</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>文件撰寫 (7~12章)</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>文件撰寫 (1~6章)</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>系統分析</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>相關資料蒐集</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>主題構思</c:v>
                 </c:pt>
               </c:strCache>
@@ -673,41 +701,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>專案時程甘特圖!$H$2:$H$12</c:f>
+              <c:f>專案時程甘特圖!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
@@ -1548,13 +1579,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>878539</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>62003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238311</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>40369</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1618,23 +1649,79 @@
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" baseline="0">
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>113</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1400" baseline="0">
+            <a:rPr kumimoji="0" lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>年</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0">
+          <a:endParaRPr kumimoji="0" lang="zh-TW" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:prstClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </cdr:txBody>
@@ -1738,20 +1825,40 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>114</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
             </a:rPr>
             <a:t>年</a:t>
           </a:r>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
           </a:endParaRPr>
@@ -2059,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD27FD11-552D-4888-B086-9F897C252BBD}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="19.8" x14ac:dyDescent="0.3"/>
@@ -2101,11 +2208,11 @@
         <v>45640</v>
       </c>
       <c r="C2" s="3">
-        <v>45657</v>
+        <v>45661</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D12" si="0">C2-B2+1</f>
-        <v>18</v>
+        <f t="shared" ref="D2:D13" si="0">C2-B2+1</f>
+        <v>22</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
@@ -2120,253 +2227,283 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>45624</v>
+        <v>45616</v>
       </c>
       <c r="C3" s="4">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4">
+        <v>45617</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45623</v>
+      </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H12" si="1">G3-F3+1</f>
-        <v>1</v>
+        <f t="shared" ref="H3:H13" si="1">G3-F3+1</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4">
-        <v>45419</v>
+        <v>45609</v>
       </c>
       <c r="C4" s="4">
-        <v>45597</v>
+        <v>45616</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4">
-        <v>45434</v>
+        <v>45610</v>
       </c>
       <c r="G4" s="4">
-        <v>45593</v>
+        <v>45613</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>45409</v>
+        <v>45419</v>
       </c>
       <c r="C5" s="4">
-        <v>45473</v>
+        <v>45597</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="4">
-        <v>45427</v>
+        <v>45434</v>
       </c>
       <c r="G5" s="4">
-        <v>45500</v>
+        <v>45609</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4">
-        <v>45383</v>
+        <v>45409</v>
       </c>
       <c r="C6" s="4">
-        <v>45413</v>
+        <v>45473</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4">
-        <v>45399</v>
+        <v>45427</v>
       </c>
       <c r="G6" s="4">
-        <v>45426</v>
+        <v>45500</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>45370</v>
+        <v>45383</v>
       </c>
       <c r="C7" s="4">
-        <v>45443</v>
+        <v>45413</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="4">
-        <v>45371</v>
+        <v>45399</v>
       </c>
       <c r="G7" s="4">
-        <v>45461</v>
+        <v>45426</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
-        <v>45536</v>
+        <v>45370</v>
       </c>
       <c r="C8" s="4">
-        <v>45596</v>
+        <v>45443</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4">
-        <v>45550</v>
+        <v>45371</v>
       </c>
       <c r="G8" s="4">
-        <v>45618</v>
+        <v>45461</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>45366</v>
+        <v>45536</v>
       </c>
       <c r="C9" s="4">
-        <v>45382</v>
+        <v>45596</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4">
-        <v>45376</v>
+        <v>45550</v>
       </c>
       <c r="G9" s="4">
-        <v>45398</v>
+        <v>45618</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4">
-        <v>45352</v>
+        <v>45366</v>
       </c>
       <c r="C10" s="4">
-        <v>45366</v>
+        <v>45382</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4">
-        <v>45370</v>
+        <v>45376</v>
       </c>
       <c r="G10" s="4">
-        <v>45382</v>
+        <v>45398</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4">
         <v>45352</v>
       </c>
       <c r="C11" s="4">
-        <v>45382</v>
+        <v>45366</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="4">
         <v>45370</v>
       </c>
       <c r="G11" s="4">
-        <v>45395</v>
+        <v>45382</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="C12" s="4">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="4">
+        <v>45370</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45395</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
         <v>45323</v>
       </c>
-      <c r="G12" s="4">
+      <c r="C13" s="4">
+        <v>45351</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4">
+        <v>45323</v>
+      </c>
+      <c r="G13" s="4">
         <v>45370</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
